--- a/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_tilde_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_tilde_A.xlsx
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.000806971314774239</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.000806971314774239</v>
       </c>
       <c r="M6">
         <v>0.00149997461623641</v>
@@ -1523,7 +1523,7 @@
         <v>0.08340495623089807</v>
       </c>
       <c r="P6">
-        <v>17.98423839566421</v>
+        <v>27.65957846226915</v>
       </c>
       <c r="Q6">
         <v>0.154208945717659</v>
@@ -1544,7 +1544,7 @@
         <v>27.65957846227022</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>9.675340066604935</v>
       </c>
       <c r="X6">
         <v>0</v>
